--- a/xlsx/Chicago Tribune_intext.xlsx
+++ b/xlsx/Chicago Tribune_intext.xlsx
@@ -29,7 +29,7 @@
     <t>en-Broadsheet</t>
   </si>
   <si>
-    <t>政策_政策_美國_Chicago Tribune</t>
+    <t>政策_政策_美国_Chicago Tribune</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Tribune_Company</t>
@@ -41,13 +41,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E5%B7%9E</t>
   </si>
   <si>
-    <t>伊利諾州</t>
+    <t>伊利诺州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E6%9C%9F%E5%88%8A%E8%99%9F</t>
   </si>
   <si>
-    <t>國際標準期刊號</t>
+    <t>国际标准期刊号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E9%87%91</t>
